--- a/database/industries/palayesh/shebandar/cost/quarterly.xlsx
+++ b/database/industries/palayesh/shebandar/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shebandar\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4837FF-48C3-47AF-9139-C0DAE0917B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4446AFFA-A54D-4D1B-8DC0-91A8EFC69D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>بشکه</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>میعانات گازی</t>
@@ -688,16 +703,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I155"/>
+  <dimension ref="B1:N155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -706,8 +721,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -718,8 +738,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -730,8 +755,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -740,8 +770,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -752,8 +787,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,8 +804,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -774,8 +819,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -796,8 +846,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -806,98 +871,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>175930779</v>
+      </c>
+      <c r="F10" s="9">
+        <v>182262114</v>
+      </c>
+      <c r="G10" s="9">
+        <v>311510278</v>
+      </c>
+      <c r="H10" s="9">
+        <v>383098598</v>
+      </c>
+      <c r="I10" s="9">
+        <v>443582869</v>
+      </c>
+      <c r="J10" s="9">
         <v>401901797</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>559764996</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>764058863</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>746702021</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>638561604</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>503734</v>
+      </c>
+      <c r="F11" s="11">
+        <v>71851</v>
+      </c>
+      <c r="G11" s="11">
+        <v>614170</v>
+      </c>
+      <c r="H11" s="11">
+        <v>511923</v>
+      </c>
+      <c r="I11" s="11">
+        <v>296422</v>
+      </c>
+      <c r="J11" s="11">
         <v>300151</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>580878</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>441269</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>441370</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>982022</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>2086067</v>
+      </c>
+      <c r="F12" s="9">
+        <v>3269919</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3632419</v>
+      </c>
+      <c r="H12" s="9">
+        <v>5054341</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4974848</v>
+      </c>
+      <c r="J12" s="9">
         <v>7873471</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>17277361</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>9295527</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>9921472</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>10639163</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>178520580</v>
+      </c>
+      <c r="F13" s="13">
+        <v>185603884</v>
+      </c>
+      <c r="G13" s="13">
+        <v>315756867</v>
+      </c>
+      <c r="H13" s="13">
+        <v>388664862</v>
+      </c>
+      <c r="I13" s="13">
+        <v>448854139</v>
+      </c>
+      <c r="J13" s="13">
         <v>410075419</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>577623235</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>773795659</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>757064863</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>650182789</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -916,54 +1046,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>178520580</v>
+      </c>
+      <c r="F15" s="13">
+        <v>185603884</v>
+      </c>
+      <c r="G15" s="13">
+        <v>315756867</v>
+      </c>
+      <c r="H15" s="13">
+        <v>388664862</v>
+      </c>
+      <c r="I15" s="13">
+        <v>448854139</v>
+      </c>
+      <c r="J15" s="13">
         <v>410075419</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>577623235</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>773795659</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>757064863</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>650182789</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>1165402</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-1728786</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-6726678</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-601033</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-6117045</v>
+      </c>
+      <c r="J16" s="9">
         <v>6147158</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-13411079</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-2108243</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>15114146</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-5377663</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -982,32 +1157,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>179685982</v>
+      </c>
+      <c r="F18" s="15">
+        <v>183875098</v>
+      </c>
+      <c r="G18" s="15">
+        <v>309030189</v>
+      </c>
+      <c r="H18" s="15">
+        <v>388063829</v>
+      </c>
+      <c r="I18" s="15">
+        <v>442737094</v>
+      </c>
+      <c r="J18" s="15">
         <v>416222577</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>564212156</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>771687416</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>772179009</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>644805126</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1015,65 +1220,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>3503178</v>
+      </c>
+      <c r="H19" s="11">
+        <v>50589773</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>9458676</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>141839344</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>395116035</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>246439751</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>8005992</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-3503178</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-82060432</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-33463170</v>
+      </c>
+      <c r="J20" s="9">
         <v>-9458676</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-141839344</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-395116035</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-246439751</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-263506308</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>187691974</v>
+      </c>
+      <c r="F21" s="13">
+        <v>180371920</v>
+      </c>
+      <c r="G21" s="13">
+        <v>312368978</v>
+      </c>
+      <c r="H21" s="13">
+        <v>356593170</v>
+      </c>
+      <c r="I21" s="13">
+        <v>409273924</v>
+      </c>
+      <c r="J21" s="13">
         <v>406763901</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>547355090</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>518410725</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>920855293</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>627738569</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1092,30 +1342,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>187691974</v>
+      </c>
+      <c r="F23" s="13">
+        <v>180371920</v>
+      </c>
+      <c r="G23" s="13">
+        <v>312368978</v>
+      </c>
+      <c r="H23" s="13">
+        <v>356593170</v>
+      </c>
+      <c r="I23" s="13">
+        <v>409273924</v>
+      </c>
+      <c r="J23" s="13">
         <v>406763901</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>547355090</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>518410725</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>920855293</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>627738569</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1124,8 +1404,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1134,8 +1419,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1144,10 +1434,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1166,8 +1461,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1176,102 +1486,167 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>380758</v>
       </c>
       <c r="F30" s="11">
+        <v>223546</v>
+      </c>
+      <c r="G30" s="11">
+        <v>223427</v>
+      </c>
+      <c r="H30" s="11">
+        <v>181492</v>
+      </c>
+      <c r="I30" s="11">
+        <v>443096</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="11">
         <v>385830</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>244189</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>221829</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>467327</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>4322695</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3438479</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2278996</v>
+      </c>
+      <c r="H31" s="9">
+        <v>5921812</v>
+      </c>
+      <c r="I31" s="9">
+        <v>3022160</v>
+      </c>
+      <c r="J31" s="9">
         <v>3658601</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>3259299</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>3628446</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>3456233</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>3323668</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
+        <v>4703453</v>
+      </c>
+      <c r="F32" s="13">
+        <v>3662025</v>
+      </c>
+      <c r="G32" s="13">
+        <v>2502423</v>
+      </c>
+      <c r="H32" s="13">
+        <v>6103304</v>
+      </c>
+      <c r="I32" s="13">
+        <v>3465256</v>
+      </c>
+      <c r="J32" s="13">
         <v>3658601</v>
       </c>
-      <c r="F32" s="13">
+      <c r="K32" s="13">
         <v>3645129</v>
       </c>
-      <c r="G32" s="13">
+      <c r="L32" s="13">
         <v>3872635</v>
       </c>
-      <c r="H32" s="13">
+      <c r="M32" s="13">
         <v>3678062</v>
       </c>
-      <c r="I32" s="13">
+      <c r="N32" s="13">
         <v>3790995</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1280,8 +1655,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1290,8 +1670,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1300,10 +1685,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1322,8 +1712,23 @@
       <c r="I36" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1332,102 +1737,167 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
+        <v>614616</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1627610</v>
+      </c>
+      <c r="G39" s="11">
+        <v>2290669</v>
+      </c>
+      <c r="H39" s="11">
+        <v>2824321</v>
+      </c>
+      <c r="I39" s="11">
+        <v>2159345</v>
+      </c>
+      <c r="J39" s="11">
         <v>1538230</v>
       </c>
-      <c r="F39" s="11">
+      <c r="K39" s="11">
         <v>1768692</v>
       </c>
-      <c r="G39" s="11">
+      <c r="L39" s="11">
         <v>1889415</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>2334056</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>2522745</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
+        <v>26291932</v>
+      </c>
+      <c r="F40" s="9">
+        <v>19812757</v>
+      </c>
+      <c r="G40" s="9">
+        <v>30143208</v>
+      </c>
+      <c r="H40" s="9">
+        <v>26573881</v>
+      </c>
+      <c r="I40" s="9">
+        <v>30056208</v>
+      </c>
+      <c r="J40" s="9">
         <v>23239277</v>
       </c>
-      <c r="F40" s="9">
+      <c r="K40" s="9">
         <v>29121480</v>
       </c>
-      <c r="G40" s="9">
+      <c r="L40" s="9">
         <v>30153796</v>
       </c>
-      <c r="H40" s="9">
+      <c r="M40" s="9">
         <v>29858274</v>
       </c>
-      <c r="I40" s="9">
+      <c r="N40" s="9">
         <v>28202626</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>26906548</v>
+      </c>
+      <c r="F41" s="13">
+        <v>21440367</v>
+      </c>
+      <c r="G41" s="13">
+        <v>32433877</v>
+      </c>
+      <c r="H41" s="13">
+        <v>29398202</v>
+      </c>
+      <c r="I41" s="13">
+        <v>32215553</v>
+      </c>
+      <c r="J41" s="13">
         <v>24777507</v>
       </c>
-      <c r="F41" s="13">
+      <c r="K41" s="13">
         <v>30890172</v>
       </c>
-      <c r="G41" s="13">
+      <c r="L41" s="13">
         <v>32043211</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>32192330</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>30725371</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1436,8 +1906,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1446,8 +1921,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1456,10 +1936,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1478,8 +1963,23 @@
       <c r="I45" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1488,102 +1988,167 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>771830</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1627729</v>
+      </c>
+      <c r="G48" s="11">
+        <v>2332604</v>
+      </c>
+      <c r="H48" s="11">
+        <v>2562717</v>
+      </c>
+      <c r="I48" s="11">
+        <v>2275434</v>
+      </c>
+      <c r="J48" s="11">
         <v>1479407</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>1910333</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>1911775</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>2088558</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>2647619</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>27176148</v>
+      </c>
+      <c r="F49" s="9">
+        <v>20972240</v>
+      </c>
+      <c r="G49" s="9">
+        <v>26500392</v>
+      </c>
+      <c r="H49" s="9">
+        <v>29473533</v>
+      </c>
+      <c r="I49" s="9">
+        <v>29419767</v>
+      </c>
+      <c r="J49" s="9">
         <v>23638579</v>
       </c>
-      <c r="F49" s="9">
+      <c r="K49" s="9">
         <v>28752333</v>
       </c>
-      <c r="G49" s="9">
+      <c r="L49" s="9">
         <v>30326009</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>29990839</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>27518358</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
+        <v>27947978</v>
+      </c>
+      <c r="F50" s="13">
+        <v>22599969</v>
+      </c>
+      <c r="G50" s="13">
+        <v>28832996</v>
+      </c>
+      <c r="H50" s="13">
+        <v>32036250</v>
+      </c>
+      <c r="I50" s="13">
+        <v>31695201</v>
+      </c>
+      <c r="J50" s="13">
         <v>25117986</v>
       </c>
-      <c r="F50" s="13">
+      <c r="K50" s="13">
         <v>30662666</v>
       </c>
-      <c r="G50" s="13">
+      <c r="L50" s="13">
         <v>32237784</v>
       </c>
-      <c r="H50" s="13">
+      <c r="M50" s="13">
         <v>32079397</v>
       </c>
-      <c r="I50" s="13">
+      <c r="N50" s="13">
         <v>30165977</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1592,8 +2157,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1602,8 +2172,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1612,10 +2187,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1634,8 +2214,23 @@
       <c r="I54" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1644,102 +2239,167 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>223546</v>
+      </c>
+      <c r="F57" s="11">
+        <v>223427</v>
+      </c>
+      <c r="G57" s="11">
+        <v>181492</v>
+      </c>
+      <c r="H57" s="11">
+        <v>443096</v>
+      </c>
+      <c r="I57" s="11">
+        <v>327007</v>
+      </c>
+      <c r="J57" s="11">
         <v>385830</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>244189</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>221829</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>467327</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>342453</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
+        <v>3438479</v>
+      </c>
+      <c r="F58" s="9">
+        <v>2278996</v>
+      </c>
+      <c r="G58" s="9">
+        <v>5921812</v>
+      </c>
+      <c r="H58" s="9">
+        <v>3022160</v>
+      </c>
+      <c r="I58" s="9">
+        <v>3658601</v>
+      </c>
+      <c r="J58" s="9">
         <v>3259299</v>
       </c>
-      <c r="F58" s="9">
+      <c r="K58" s="9">
         <v>3628446</v>
       </c>
-      <c r="G58" s="9">
+      <c r="L58" s="9">
         <v>3456233</v>
       </c>
-      <c r="H58" s="9">
+      <c r="M58" s="9">
         <v>3323668</v>
       </c>
-      <c r="I58" s="9">
+      <c r="N58" s="9">
         <v>4007936</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
+        <v>3662025</v>
+      </c>
+      <c r="F59" s="13">
+        <v>2502423</v>
+      </c>
+      <c r="G59" s="13">
+        <v>6103304</v>
+      </c>
+      <c r="H59" s="13">
+        <v>3465256</v>
+      </c>
+      <c r="I59" s="13">
+        <v>3985608</v>
+      </c>
+      <c r="J59" s="13">
         <v>3645129</v>
       </c>
-      <c r="F59" s="13">
+      <c r="K59" s="13">
         <v>3872635</v>
       </c>
-      <c r="G59" s="13">
+      <c r="L59" s="13">
         <v>3678062</v>
       </c>
-      <c r="H59" s="13">
+      <c r="M59" s="13">
         <v>3790995</v>
       </c>
-      <c r="I59" s="13">
+      <c r="N59" s="13">
         <v>4350389</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1748,8 +2408,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1758,8 +2423,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1768,10 +2438,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1790,8 +2465,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1800,102 +2490,167 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11">
+        <v>1058045</v>
+      </c>
+      <c r="F66" s="11">
+        <v>810373</v>
+      </c>
+      <c r="G66" s="11">
+        <v>1166100</v>
+      </c>
+      <c r="H66" s="11">
+        <v>1308310</v>
+      </c>
+      <c r="I66" s="11">
+        <v>5307306</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="11">
+        <v>5224885</v>
+      </c>
+      <c r="L66" s="11">
+        <v>3624293</v>
+      </c>
+      <c r="M66" s="11">
+        <v>5084196</v>
+      </c>
+      <c r="N66" s="11">
+        <v>10633091</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="11">
-        <v>5224885</v>
-      </c>
-      <c r="G66" s="11">
-        <v>3624293</v>
-      </c>
-      <c r="H66" s="11">
-        <v>5084196</v>
-      </c>
-      <c r="I66" s="11">
-        <v>10633091</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="C67" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>17230354</v>
+      </c>
+      <c r="F67" s="9">
+        <v>19790856</v>
+      </c>
+      <c r="G67" s="9">
+        <v>16841135</v>
+      </c>
+      <c r="H67" s="9">
+        <v>58613839</v>
+      </c>
+      <c r="I67" s="9">
+        <v>36593921</v>
+      </c>
+      <c r="J67" s="9">
         <v>48587146</v>
       </c>
-      <c r="F67" s="9">
+      <c r="K67" s="9">
         <v>47811805</v>
       </c>
-      <c r="G67" s="9">
+      <c r="L67" s="9">
         <v>68520592</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>85631678</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>76859840</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>18288399</v>
+      </c>
+      <c r="F68" s="13">
+        <v>20601229</v>
+      </c>
+      <c r="G68" s="13">
+        <v>18007235</v>
+      </c>
+      <c r="H68" s="13">
+        <v>59922149</v>
+      </c>
+      <c r="I68" s="13">
+        <v>41901227</v>
+      </c>
+      <c r="J68" s="13">
         <v>48587146</v>
       </c>
-      <c r="F68" s="13">
+      <c r="K68" s="13">
         <v>53036690</v>
       </c>
-      <c r="G68" s="13">
+      <c r="L68" s="13">
         <v>72144885</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>90715874</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>87492931</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1904,8 +2659,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1914,8 +2674,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1924,10 +2689,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1946,8 +2716,23 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1956,102 +2741,167 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>3551359</v>
+      </c>
+      <c r="F75" s="11">
+        <v>11967046</v>
+      </c>
+      <c r="G75" s="11">
+        <v>24084331</v>
+      </c>
+      <c r="H75" s="11">
+        <v>33794687</v>
+      </c>
+      <c r="I75" s="11">
+        <v>30310831</v>
+      </c>
+      <c r="J75" s="11">
         <v>25363023</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>34967149</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>45276724</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>52751651</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>52228022</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
+        <v>174692250</v>
+      </c>
+      <c r="F76" s="9">
+        <v>167701074</v>
+      </c>
+      <c r="G76" s="9">
+        <v>329340861</v>
+      </c>
+      <c r="H76" s="9">
+        <v>331282989</v>
+      </c>
+      <c r="I76" s="9">
+        <v>423953600</v>
+      </c>
+      <c r="J76" s="9">
         <v>376992675</v>
       </c>
-      <c r="F76" s="9">
+      <c r="K76" s="9">
         <v>543906042</v>
       </c>
-      <c r="G76" s="9">
+      <c r="L76" s="9">
         <v>737353128</v>
       </c>
-      <c r="H76" s="9">
+      <c r="M76" s="9">
         <v>690727427</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>591399612</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>178243609</v>
+      </c>
+      <c r="F77" s="13">
+        <v>179668120</v>
+      </c>
+      <c r="G77" s="13">
+        <v>353425192</v>
+      </c>
+      <c r="H77" s="13">
+        <v>365077676</v>
+      </c>
+      <c r="I77" s="13">
+        <v>454264431</v>
+      </c>
+      <c r="J77" s="13">
         <v>402355698</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>578873191</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>782629852</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>743479078</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>643627634</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2060,8 +2910,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2070,8 +2925,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2080,10 +2940,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2102,8 +2967,23 @@
       <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2112,102 +2992,167 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>3799031</v>
+      </c>
+      <c r="F84" s="11">
+        <v>11611319</v>
+      </c>
+      <c r="G84" s="11">
+        <v>23942122</v>
+      </c>
+      <c r="H84" s="11">
+        <v>29795691</v>
+      </c>
+      <c r="I84" s="11">
+        <v>31476777</v>
+      </c>
+      <c r="J84" s="11">
         <v>24279498</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>36567741</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>43816821</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>47202756</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>55816386</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>172131748</v>
+      </c>
+      <c r="F85" s="9">
+        <v>170650795</v>
+      </c>
+      <c r="G85" s="9">
+        <v>287568156</v>
+      </c>
+      <c r="H85" s="9">
+        <v>353302907</v>
+      </c>
+      <c r="I85" s="9">
+        <v>412106092</v>
+      </c>
+      <c r="J85" s="9">
         <v>377622299</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>523197255</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>720242042</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>699499265</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>582745218</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
+        <v>175930779</v>
+      </c>
+      <c r="F86" s="13">
+        <v>182262114</v>
+      </c>
+      <c r="G86" s="13">
+        <v>311510278</v>
+      </c>
+      <c r="H86" s="13">
+        <v>383098598</v>
+      </c>
+      <c r="I86" s="13">
+        <v>443582869</v>
+      </c>
+      <c r="J86" s="13">
         <v>401901797</v>
       </c>
-      <c r="F86" s="13">
+      <c r="K86" s="13">
         <v>559764996</v>
       </c>
-      <c r="G86" s="13">
+      <c r="L86" s="13">
         <v>764058863</v>
       </c>
-      <c r="H86" s="13">
+      <c r="M86" s="13">
         <v>746702021</v>
       </c>
-      <c r="I86" s="13">
+      <c r="N86" s="13">
         <v>638561604</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2216,8 +3161,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2226,8 +3176,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2236,10 +3191,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2258,8 +3218,23 @@
       <c r="I90" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2268,102 +3243,167 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
+        <v>810373</v>
+      </c>
+      <c r="F93" s="11">
+        <v>1166100</v>
+      </c>
+      <c r="G93" s="11">
+        <v>1308309</v>
+      </c>
+      <c r="H93" s="11">
+        <v>5307306</v>
+      </c>
+      <c r="I93" s="11">
+        <v>4141360</v>
+      </c>
+      <c r="J93" s="11">
         <v>5224885</v>
       </c>
-      <c r="F93" s="11">
+      <c r="K93" s="11">
         <v>3624293</v>
       </c>
-      <c r="G93" s="11">
+      <c r="L93" s="11">
         <v>5084196</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>10633091</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>7044727</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
+        <v>19790856</v>
+      </c>
+      <c r="F94" s="9">
+        <v>16841135</v>
+      </c>
+      <c r="G94" s="9">
+        <v>58613840</v>
+      </c>
+      <c r="H94" s="9">
+        <v>36593921</v>
+      </c>
+      <c r="I94" s="9">
+        <v>48441429</v>
+      </c>
+      <c r="J94" s="9">
         <v>47811805</v>
       </c>
-      <c r="F94" s="9">
+      <c r="K94" s="9">
         <v>68520592</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>85631678</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>76859840</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N94" s="9">
         <v>85514234</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>20601229</v>
+      </c>
+      <c r="F95" s="13">
+        <v>18007235</v>
+      </c>
+      <c r="G95" s="13">
+        <v>59922149</v>
+      </c>
+      <c r="H95" s="13">
+        <v>41901227</v>
+      </c>
+      <c r="I95" s="13">
+        <v>52582789</v>
+      </c>
+      <c r="J95" s="13">
         <v>53036690</v>
       </c>
-      <c r="F95" s="13">
+      <c r="K95" s="13">
         <v>72144885</v>
       </c>
-      <c r="G95" s="13">
+      <c r="L95" s="13">
         <v>90715874</v>
       </c>
-      <c r="H95" s="13">
+      <c r="M95" s="13">
         <v>87492931</v>
       </c>
-      <c r="I95" s="13">
+      <c r="N95" s="13">
         <v>92558961</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2372,8 +3412,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2382,8 +3427,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2392,10 +3442,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2414,8 +3469,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2424,56 +3494,91 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>2778786</v>
+      </c>
+      <c r="F101" s="9">
+        <v>3625084</v>
+      </c>
+      <c r="G101" s="9">
+        <v>5219154</v>
+      </c>
+      <c r="H101" s="9">
+        <v>7208637</v>
+      </c>
+      <c r="I101" s="9">
+        <v>11977779</v>
+      </c>
+      <c r="J101" s="9">
         <v>12664438</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>13541936</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>14842163</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>22919438</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>22753000</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>3986021</v>
+      </c>
+      <c r="F102" s="11">
+        <v>5755701</v>
+      </c>
+      <c r="G102" s="11">
+        <v>7389717</v>
+      </c>
+      <c r="H102" s="11">
+        <v>9897957</v>
+      </c>
+      <c r="I102" s="11">
+        <v>12108532</v>
+      </c>
+      <c r="J102" s="11">
         <v>13240424</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>14669352</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>18884280</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>24776014</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>23125005</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2482,8 +3587,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2492,8 +3602,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2502,10 +3617,15 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2524,8 +3644,23 @@
       <c r="I106" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2534,56 +3669,91 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
+        <v>5778175</v>
+      </c>
+      <c r="F108" s="9">
+        <v>7352527</v>
+      </c>
+      <c r="G108" s="9">
+        <v>10514104</v>
+      </c>
+      <c r="H108" s="9">
+        <v>11965597</v>
+      </c>
+      <c r="I108" s="9">
+        <v>14037049</v>
+      </c>
+      <c r="J108" s="9">
         <v>16488446</v>
       </c>
-      <c r="F108" s="9">
+      <c r="K108" s="9">
         <v>19770061</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>23963356</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>22600851</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>20702854</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>6644329</v>
+      </c>
+      <c r="F109" s="11">
+        <v>8464298</v>
+      </c>
+      <c r="G109" s="11">
+        <v>10925873</v>
+      </c>
+      <c r="H109" s="11">
+        <v>12466489</v>
+      </c>
+      <c r="I109" s="11">
+        <v>14105359</v>
+      </c>
+      <c r="J109" s="11">
         <v>16222220</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>18677143</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>24453078</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>23133535</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>20969665</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2592,8 +3762,13 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2602,8 +3777,13 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2612,10 +3792,15 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -2634,8 +3819,23 @@
       <c r="I113" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2644,56 +3844,91 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>4922109</v>
+      </c>
+      <c r="F115" s="9">
+        <v>7133447</v>
+      </c>
+      <c r="G115" s="9">
+        <v>10264118</v>
+      </c>
+      <c r="H115" s="9">
+        <v>11626602</v>
+      </c>
+      <c r="I115" s="9">
+        <v>13833307</v>
+      </c>
+      <c r="J115" s="9">
         <v>16411642</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>19142077</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>22919445</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>22600644</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>21081729</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>6333927</v>
+      </c>
+      <c r="F116" s="11">
+        <v>8136985</v>
+      </c>
+      <c r="G116" s="11">
+        <v>10851468</v>
+      </c>
+      <c r="H116" s="11">
+        <v>11987124</v>
+      </c>
+      <c r="I116" s="11">
+        <v>14007796</v>
+      </c>
+      <c r="J116" s="11">
         <v>15974831</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>18196689</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>23749978</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>23323764</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>21176598</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2702,8 +3937,13 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2712,8 +3952,13 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2722,10 +3967,15 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -2744,8 +3994,23 @@
       <c r="I120" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2754,56 +4019,91 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D122" s="9"/>
-      <c r="E122" s="9">
+      <c r="E122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" s="9">
+        <v>11977779</v>
+      </c>
+      <c r="I122" s="9">
+        <v>12664438</v>
+      </c>
+      <c r="J122" s="9">
         <v>13541936</v>
       </c>
-      <c r="F122" s="9">
+      <c r="K122" s="9">
         <v>14842163</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>22919438</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>22753000</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>20571369</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11">
+      <c r="E123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" s="11">
+        <v>12108532</v>
+      </c>
+      <c r="I123" s="11">
+        <v>13240424</v>
+      </c>
+      <c r="J123" s="11">
         <v>14669352</v>
       </c>
-      <c r="F123" s="11">
+      <c r="K123" s="11">
         <v>18884280</v>
       </c>
-      <c r="G123" s="11">
+      <c r="L123" s="11">
         <v>24776014</v>
       </c>
-      <c r="H123" s="11">
+      <c r="M123" s="11">
         <v>23125005</v>
       </c>
-      <c r="I123" s="11">
+      <c r="N123" s="11">
         <v>21336227</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2812,8 +4112,13 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2822,8 +4127,13 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2832,10 +4142,15 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -2854,8 +4169,23 @@
       <c r="I127" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2864,10 +4194,15 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -2886,10 +4221,25 @@
       <c r="I129" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="9">
+        <v>0</v>
+      </c>
+      <c r="K129" s="9">
+        <v>0</v>
+      </c>
+      <c r="L129" s="9">
+        <v>0</v>
+      </c>
+      <c r="M129" s="9">
+        <v>0</v>
+      </c>
+      <c r="N129" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -2908,10 +4258,25 @@
       <c r="I130" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="11">
+        <v>0</v>
+      </c>
+      <c r="K130" s="11">
+        <v>0</v>
+      </c>
+      <c r="L130" s="11">
+        <v>0</v>
+      </c>
+      <c r="M130" s="11">
+        <v>0</v>
+      </c>
+      <c r="N130" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
@@ -2930,10 +4295,25 @@
       <c r="I131" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="9">
+        <v>0</v>
+      </c>
+      <c r="K131" s="9">
+        <v>0</v>
+      </c>
+      <c r="L131" s="9">
+        <v>0</v>
+      </c>
+      <c r="M131" s="9">
+        <v>0</v>
+      </c>
+      <c r="N131" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -2952,32 +4332,62 @@
       <c r="I132" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="11">
+        <v>0</v>
+      </c>
+      <c r="K132" s="11">
+        <v>0</v>
+      </c>
+      <c r="L132" s="11">
+        <v>0</v>
+      </c>
+      <c r="M132" s="11">
+        <v>0</v>
+      </c>
+      <c r="N132" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
+        <v>179129</v>
+      </c>
+      <c r="F133" s="9">
+        <v>165057</v>
+      </c>
+      <c r="G133" s="9">
+        <v>321506</v>
+      </c>
+      <c r="H133" s="9">
+        <v>208884</v>
+      </c>
+      <c r="I133" s="9">
+        <v>437678</v>
+      </c>
+      <c r="J133" s="9">
         <v>227537</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>418224</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>368867</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>620882</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>343825</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -2996,54 +4406,99 @@
       <c r="I134" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="11">
+        <v>0</v>
+      </c>
+      <c r="K134" s="11">
+        <v>0</v>
+      </c>
+      <c r="L134" s="11">
+        <v>0</v>
+      </c>
+      <c r="M134" s="11">
+        <v>0</v>
+      </c>
+      <c r="N134" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>168195</v>
+      </c>
+      <c r="F135" s="9">
+        <v>723276</v>
+      </c>
+      <c r="G135" s="9">
+        <v>748022</v>
+      </c>
+      <c r="H135" s="9">
+        <v>465447</v>
+      </c>
+      <c r="I135" s="9">
+        <v>1423033</v>
+      </c>
+      <c r="J135" s="9">
         <v>839002</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>1225300</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>879074</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>952532</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>1173291</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>326661</v>
+      </c>
+      <c r="F136" s="11">
+        <v>1346814</v>
+      </c>
+      <c r="G136" s="11">
+        <v>1111844</v>
+      </c>
+      <c r="H136" s="11">
+        <v>1710501</v>
+      </c>
+      <c r="I136" s="11">
+        <v>2197969</v>
+      </c>
+      <c r="J136" s="11">
         <v>1855283</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>4186035</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>2883381</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>2788406</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>3075687</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -3062,52 +4517,97 @@
       <c r="I137" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="9">
+        <v>0</v>
+      </c>
+      <c r="K137" s="9">
+        <v>0</v>
+      </c>
+      <c r="L137" s="9">
+        <v>0</v>
+      </c>
+      <c r="M137" s="9">
+        <v>0</v>
+      </c>
+      <c r="N137" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>1412082</v>
+      </c>
+      <c r="F138" s="11">
+        <v>1034772</v>
+      </c>
+      <c r="G138" s="11">
+        <v>1451047</v>
+      </c>
+      <c r="H138" s="11">
+        <v>2669509</v>
+      </c>
+      <c r="I138" s="11">
+        <v>916168</v>
+      </c>
+      <c r="J138" s="11">
         <v>4951649</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>11447802</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>5164205</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>5559652</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>6046360</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15">
+        <v>2086067</v>
+      </c>
+      <c r="F139" s="15">
+        <v>3269919</v>
+      </c>
+      <c r="G139" s="15">
+        <v>3632419</v>
+      </c>
+      <c r="H139" s="15">
+        <v>5054341</v>
+      </c>
+      <c r="I139" s="15">
+        <v>4974848</v>
+      </c>
+      <c r="J139" s="15">
         <v>7873471</v>
       </c>
-      <c r="F139" s="15">
+      <c r="K139" s="15">
         <v>17277361</v>
       </c>
-      <c r="G139" s="15">
+      <c r="L139" s="15">
         <v>9295527</v>
       </c>
-      <c r="H139" s="15">
+      <c r="M139" s="15">
         <v>9921472</v>
       </c>
-      <c r="I139" s="15">
+      <c r="N139" s="15">
         <v>10639163</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3116,8 +4616,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3126,8 +4631,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3136,10 +4646,15 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3148,8 +4663,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3158,123 +4678,128 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>

--- a/database/industries/palayesh/shebandar/cost/quarterly.xlsx
+++ b/database/industries/palayesh/shebandar/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4446AFFA-A54D-4D1B-8DC0-91A8EFC69D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166F5892-56AB-48D9-8800-E541CBD8CF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -97,25 +97,25 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>اکتان‌افزا</t>
+  </si>
+  <si>
+    <t>بشکه</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>اکتان‌افزا</t>
-  </si>
-  <si>
-    <t>بشکه</t>
   </si>
   <si>
     <t>میعانات گازی</t>
@@ -707,12 +707,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -727,7 +727,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -776,7 +776,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -793,7 +793,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -825,7 +825,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -862,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -877,155 +877,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>175930779</v>
+        <v>182262114</v>
       </c>
       <c r="F10" s="9">
-        <v>182262114</v>
+        <v>311510278</v>
       </c>
       <c r="G10" s="9">
-        <v>311510278</v>
+        <v>383098598</v>
       </c>
       <c r="H10" s="9">
-        <v>383098598</v>
+        <v>443582869</v>
       </c>
       <c r="I10" s="9">
-        <v>443582869</v>
+        <v>401901797</v>
       </c>
       <c r="J10" s="9">
-        <v>401901797</v>
+        <v>559764996</v>
       </c>
       <c r="K10" s="9">
-        <v>559764996</v>
+        <v>764058863</v>
       </c>
       <c r="L10" s="9">
-        <v>764058863</v>
+        <v>746702021</v>
       </c>
       <c r="M10" s="9">
-        <v>746702021</v>
+        <v>638561604</v>
       </c>
       <c r="N10" s="9">
-        <v>638561604</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>583030161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>503734</v>
+        <v>71851</v>
       </c>
       <c r="F11" s="11">
-        <v>71851</v>
+        <v>614170</v>
       </c>
       <c r="G11" s="11">
-        <v>614170</v>
+        <v>511923</v>
       </c>
       <c r="H11" s="11">
-        <v>511923</v>
+        <v>296422</v>
       </c>
       <c r="I11" s="11">
-        <v>296422</v>
+        <v>300151</v>
       </c>
       <c r="J11" s="11">
-        <v>300151</v>
+        <v>580878</v>
       </c>
       <c r="K11" s="11">
-        <v>580878</v>
+        <v>441269</v>
       </c>
       <c r="L11" s="11">
-        <v>441269</v>
+        <v>441370</v>
       </c>
       <c r="M11" s="11">
-        <v>441370</v>
+        <v>982022</v>
       </c>
       <c r="N11" s="11">
-        <v>982022</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>678048</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>2086067</v>
+        <v>3269919</v>
       </c>
       <c r="F12" s="9">
-        <v>3269919</v>
+        <v>3632419</v>
       </c>
       <c r="G12" s="9">
-        <v>3632419</v>
+        <v>5054341</v>
       </c>
       <c r="H12" s="9">
-        <v>5054341</v>
+        <v>4974848</v>
       </c>
       <c r="I12" s="9">
-        <v>4974848</v>
+        <v>7873471</v>
       </c>
       <c r="J12" s="9">
-        <v>7873471</v>
+        <v>17277361</v>
       </c>
       <c r="K12" s="9">
-        <v>17277361</v>
+        <v>9295527</v>
       </c>
       <c r="L12" s="9">
-        <v>9295527</v>
+        <v>9921472</v>
       </c>
       <c r="M12" s="9">
-        <v>9921472</v>
+        <v>10639163</v>
       </c>
       <c r="N12" s="9">
-        <v>10639163</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12903704</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>178520580</v>
+        <v>185603884</v>
       </c>
       <c r="F13" s="13">
-        <v>185603884</v>
+        <v>315756867</v>
       </c>
       <c r="G13" s="13">
-        <v>315756867</v>
+        <v>388664862</v>
       </c>
       <c r="H13" s="13">
-        <v>388664862</v>
+        <v>448854139</v>
       </c>
       <c r="I13" s="13">
-        <v>448854139</v>
+        <v>410075419</v>
       </c>
       <c r="J13" s="13">
-        <v>410075419</v>
+        <v>577623235</v>
       </c>
       <c r="K13" s="13">
-        <v>577623235</v>
+        <v>773795659</v>
       </c>
       <c r="L13" s="13">
-        <v>773795659</v>
+        <v>757064863</v>
       </c>
       <c r="M13" s="13">
-        <v>757064863</v>
+        <v>650182789</v>
       </c>
       <c r="N13" s="13">
-        <v>650182789</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>596611913</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1062,81 +1062,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>178520580</v>
+        <v>185603884</v>
       </c>
       <c r="F15" s="13">
-        <v>185603884</v>
+        <v>315756867</v>
       </c>
       <c r="G15" s="13">
-        <v>315756867</v>
+        <v>388664862</v>
       </c>
       <c r="H15" s="13">
-        <v>388664862</v>
+        <v>448854139</v>
       </c>
       <c r="I15" s="13">
-        <v>448854139</v>
+        <v>410075419</v>
       </c>
       <c r="J15" s="13">
-        <v>410075419</v>
+        <v>577623235</v>
       </c>
       <c r="K15" s="13">
-        <v>577623235</v>
+        <v>773795659</v>
       </c>
       <c r="L15" s="13">
-        <v>773795659</v>
+        <v>757064863</v>
       </c>
       <c r="M15" s="13">
-        <v>757064863</v>
+        <v>650182789</v>
       </c>
       <c r="N15" s="13">
-        <v>650182789</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>596611913</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>1165402</v>
+        <v>-1728786</v>
       </c>
       <c r="F16" s="9">
-        <v>-1728786</v>
+        <v>-6726678</v>
       </c>
       <c r="G16" s="9">
-        <v>-6726678</v>
+        <v>-601033</v>
       </c>
       <c r="H16" s="9">
-        <v>-601033</v>
+        <v>-6117045</v>
       </c>
       <c r="I16" s="9">
-        <v>-6117045</v>
+        <v>6147158</v>
       </c>
       <c r="J16" s="9">
-        <v>6147158</v>
+        <v>-13411079</v>
       </c>
       <c r="K16" s="9">
-        <v>-13411079</v>
+        <v>-2108243</v>
       </c>
       <c r="L16" s="9">
-        <v>-2108243</v>
+        <v>15114146</v>
       </c>
       <c r="M16" s="9">
-        <v>15114146</v>
+        <v>-5377663</v>
       </c>
       <c r="N16" s="9">
-        <v>-5377663</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3191907</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1173,44 +1173,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>179685982</v>
+        <v>183875098</v>
       </c>
       <c r="F18" s="15">
-        <v>183875098</v>
+        <v>309030189</v>
       </c>
       <c r="G18" s="15">
-        <v>309030189</v>
+        <v>388063829</v>
       </c>
       <c r="H18" s="15">
-        <v>388063829</v>
+        <v>442737094</v>
       </c>
       <c r="I18" s="15">
-        <v>442737094</v>
+        <v>416222577</v>
       </c>
       <c r="J18" s="15">
-        <v>416222577</v>
+        <v>564212156</v>
       </c>
       <c r="K18" s="15">
-        <v>564212156</v>
+        <v>771687416</v>
       </c>
       <c r="L18" s="15">
-        <v>771687416</v>
+        <v>772179009</v>
       </c>
       <c r="M18" s="15">
-        <v>772179009</v>
+        <v>644805126</v>
       </c>
       <c r="N18" s="15">
-        <v>644805126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>593420006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1220,110 +1220,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>53928562</v>
       </c>
       <c r="G19" s="11">
-        <v>3503178</v>
+        <v>50589773</v>
       </c>
       <c r="H19" s="11">
-        <v>50589773</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>124982278</v>
       </c>
       <c r="K19" s="11">
-        <v>9458676</v>
+        <v>141839344</v>
       </c>
       <c r="L19" s="11">
-        <v>141839344</v>
+        <v>395116035</v>
       </c>
       <c r="M19" s="11">
-        <v>395116035</v>
+        <v>246439751</v>
       </c>
       <c r="N19" s="11">
-        <v>246439751</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>263506308</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>8005992</v>
+        <v>-3503178</v>
       </c>
       <c r="F20" s="9">
-        <v>-3503178</v>
-      </c>
-      <c r="G20" s="9" t="s">
+        <v>-50589773</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-82060432</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-33463170</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-9458676</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-141839344</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-395116035</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-246439751</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-263506308</v>
+      </c>
+      <c r="N20" s="9">
+        <v>-161386250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="H20" s="9">
-        <v>-82060432</v>
-      </c>
-      <c r="I20" s="9">
-        <v>-33463170</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-9458676</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-141839344</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-395116035</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-246439751</v>
-      </c>
-      <c r="N20" s="9">
-        <v>-263506308</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>187691974</v>
+        <v>180371920</v>
       </c>
       <c r="F21" s="13">
-        <v>180371920</v>
+        <v>312368978</v>
       </c>
       <c r="G21" s="13">
-        <v>312368978</v>
+        <v>356593170</v>
       </c>
       <c r="H21" s="13">
-        <v>356593170</v>
+        <v>409273924</v>
       </c>
       <c r="I21" s="13">
-        <v>409273924</v>
+        <v>406763901</v>
       </c>
       <c r="J21" s="13">
-        <v>406763901</v>
+        <v>547355090</v>
       </c>
       <c r="K21" s="13">
-        <v>547355090</v>
+        <v>518410725</v>
       </c>
       <c r="L21" s="13">
-        <v>518410725</v>
+        <v>920855293</v>
       </c>
       <c r="M21" s="13">
-        <v>920855293</v>
+        <v>627738569</v>
       </c>
       <c r="N21" s="13">
-        <v>627738569</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>695540064</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1358,44 +1358,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>187691974</v>
+        <v>180371920</v>
       </c>
       <c r="F23" s="13">
-        <v>180371920</v>
+        <v>312368978</v>
       </c>
       <c r="G23" s="13">
-        <v>312368978</v>
+        <v>356593170</v>
       </c>
       <c r="H23" s="13">
-        <v>356593170</v>
+        <v>409273924</v>
       </c>
       <c r="I23" s="13">
-        <v>409273924</v>
+        <v>406763901</v>
       </c>
       <c r="J23" s="13">
-        <v>406763901</v>
+        <v>547355090</v>
       </c>
       <c r="K23" s="13">
-        <v>547355090</v>
+        <v>518410725</v>
       </c>
       <c r="L23" s="13">
-        <v>518410725</v>
+        <v>920855293</v>
       </c>
       <c r="M23" s="13">
-        <v>920855293</v>
+        <v>627738569</v>
       </c>
       <c r="N23" s="13">
-        <v>627738569</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>695540064</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1410,7 +1410,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1425,7 +1425,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1440,9 +1440,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1477,7 +1477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1492,161 +1492,161 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>380758</v>
+        <v>223546</v>
       </c>
       <c r="F30" s="11">
-        <v>223546</v>
+        <v>223427</v>
       </c>
       <c r="G30" s="11">
-        <v>223427</v>
+        <v>181492</v>
       </c>
       <c r="H30" s="11">
-        <v>181492</v>
-      </c>
-      <c r="I30" s="11">
         <v>443096</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>25</v>
+      <c r="I30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11">
+        <v>385830</v>
       </c>
       <c r="K30" s="11">
-        <v>385830</v>
+        <v>244189</v>
       </c>
       <c r="L30" s="11">
-        <v>244189</v>
+        <v>221829</v>
       </c>
       <c r="M30" s="11">
-        <v>221829</v>
+        <v>467327</v>
       </c>
       <c r="N30" s="11">
-        <v>467327</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>342453</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>4322695</v>
+        <v>3438479</v>
       </c>
       <c r="F31" s="9">
-        <v>3438479</v>
+        <v>2278996</v>
       </c>
       <c r="G31" s="9">
-        <v>2278996</v>
+        <v>5921812</v>
       </c>
       <c r="H31" s="9">
-        <v>5921812</v>
+        <v>3022160</v>
       </c>
       <c r="I31" s="9">
-        <v>3022160</v>
+        <v>3658601</v>
       </c>
       <c r="J31" s="9">
-        <v>3658601</v>
+        <v>3259299</v>
       </c>
       <c r="K31" s="9">
-        <v>3259299</v>
+        <v>3628446</v>
       </c>
       <c r="L31" s="9">
-        <v>3628446</v>
+        <v>3456233</v>
       </c>
       <c r="M31" s="9">
-        <v>3456233</v>
+        <v>3323668</v>
       </c>
       <c r="N31" s="9">
-        <v>3323668</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4007936</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>4703453</v>
+        <v>3662025</v>
       </c>
       <c r="F32" s="13">
-        <v>3662025</v>
+        <v>2502423</v>
       </c>
       <c r="G32" s="13">
-        <v>2502423</v>
+        <v>6103304</v>
       </c>
       <c r="H32" s="13">
-        <v>6103304</v>
+        <v>3465256</v>
       </c>
       <c r="I32" s="13">
-        <v>3465256</v>
+        <v>3658601</v>
       </c>
       <c r="J32" s="13">
-        <v>3658601</v>
+        <v>3645129</v>
       </c>
       <c r="K32" s="13">
-        <v>3645129</v>
+        <v>3872635</v>
       </c>
       <c r="L32" s="13">
-        <v>3872635</v>
+        <v>3678062</v>
       </c>
       <c r="M32" s="13">
-        <v>3678062</v>
+        <v>3790995</v>
       </c>
       <c r="N32" s="13">
-        <v>3790995</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4350389</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1661,7 +1661,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1676,7 +1676,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1691,7 +1691,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>34</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1743,161 +1743,161 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>614616</v>
+        <v>1627610</v>
       </c>
       <c r="F39" s="11">
-        <v>1627610</v>
+        <v>2290669</v>
       </c>
       <c r="G39" s="11">
-        <v>2290669</v>
+        <v>2824321</v>
       </c>
       <c r="H39" s="11">
-        <v>2824321</v>
+        <v>2159345</v>
       </c>
       <c r="I39" s="11">
-        <v>2159345</v>
+        <v>1538230</v>
       </c>
       <c r="J39" s="11">
-        <v>1538230</v>
+        <v>1768692</v>
       </c>
       <c r="K39" s="11">
-        <v>1768692</v>
+        <v>1889415</v>
       </c>
       <c r="L39" s="11">
-        <v>1889415</v>
+        <v>2334056</v>
       </c>
       <c r="M39" s="11">
-        <v>2334056</v>
+        <v>2522745</v>
       </c>
       <c r="N39" s="11">
-        <v>2522745</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2012637</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>26291932</v>
+        <v>19812757</v>
       </c>
       <c r="F40" s="9">
-        <v>19812757</v>
+        <v>30143208</v>
       </c>
       <c r="G40" s="9">
-        <v>30143208</v>
+        <v>26573881</v>
       </c>
       <c r="H40" s="9">
-        <v>26573881</v>
+        <v>30056208</v>
       </c>
       <c r="I40" s="9">
-        <v>30056208</v>
+        <v>23239277</v>
       </c>
       <c r="J40" s="9">
-        <v>23239277</v>
+        <v>29121480</v>
       </c>
       <c r="K40" s="9">
-        <v>29121480</v>
+        <v>30153796</v>
       </c>
       <c r="L40" s="9">
-        <v>30153796</v>
+        <v>29858274</v>
       </c>
       <c r="M40" s="9">
-        <v>29858274</v>
+        <v>28202626</v>
       </c>
       <c r="N40" s="9">
-        <v>28202626</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28693178</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>26906548</v>
+        <v>21440367</v>
       </c>
       <c r="F41" s="13">
-        <v>21440367</v>
+        <v>32433877</v>
       </c>
       <c r="G41" s="13">
-        <v>32433877</v>
+        <v>29398202</v>
       </c>
       <c r="H41" s="13">
-        <v>29398202</v>
+        <v>32215553</v>
       </c>
       <c r="I41" s="13">
-        <v>32215553</v>
+        <v>24777507</v>
       </c>
       <c r="J41" s="13">
-        <v>24777507</v>
+        <v>30890172</v>
       </c>
       <c r="K41" s="13">
-        <v>30890172</v>
+        <v>32043211</v>
       </c>
       <c r="L41" s="13">
-        <v>32043211</v>
+        <v>32192330</v>
       </c>
       <c r="M41" s="13">
-        <v>32192330</v>
+        <v>30725371</v>
       </c>
       <c r="N41" s="13">
-        <v>30725371</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30705815</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1912,7 +1912,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1927,7 +1927,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1942,7 +1942,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>35</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1994,161 +1994,161 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>771830</v>
+        <v>1627729</v>
       </c>
       <c r="F48" s="11">
-        <v>1627729</v>
+        <v>2332604</v>
       </c>
       <c r="G48" s="11">
-        <v>2332604</v>
+        <v>2562717</v>
       </c>
       <c r="H48" s="11">
-        <v>2562717</v>
+        <v>2275434</v>
       </c>
       <c r="I48" s="11">
-        <v>2275434</v>
+        <v>1479407</v>
       </c>
       <c r="J48" s="11">
-        <v>1479407</v>
+        <v>1910333</v>
       </c>
       <c r="K48" s="11">
-        <v>1910333</v>
+        <v>1911775</v>
       </c>
       <c r="L48" s="11">
-        <v>1911775</v>
+        <v>2088558</v>
       </c>
       <c r="M48" s="11">
-        <v>2088558</v>
+        <v>2647619</v>
       </c>
       <c r="N48" s="11">
-        <v>2647619</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2134098</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>27176148</v>
+        <v>20972240</v>
       </c>
       <c r="F49" s="9">
-        <v>20972240</v>
+        <v>26500392</v>
       </c>
       <c r="G49" s="9">
-        <v>26500392</v>
+        <v>29473533</v>
       </c>
       <c r="H49" s="9">
-        <v>29473533</v>
+        <v>29419767</v>
       </c>
       <c r="I49" s="9">
-        <v>29419767</v>
+        <v>23638579</v>
       </c>
       <c r="J49" s="9">
-        <v>23638579</v>
+        <v>28752333</v>
       </c>
       <c r="K49" s="9">
-        <v>28752333</v>
+        <v>30326009</v>
       </c>
       <c r="L49" s="9">
-        <v>30326009</v>
+        <v>29990839</v>
       </c>
       <c r="M49" s="9">
-        <v>29990839</v>
+        <v>27518358</v>
       </c>
       <c r="N49" s="9">
-        <v>27518358</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29165071</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>27947978</v>
+        <v>22599969</v>
       </c>
       <c r="F50" s="13">
-        <v>22599969</v>
+        <v>28832996</v>
       </c>
       <c r="G50" s="13">
-        <v>28832996</v>
+        <v>32036250</v>
       </c>
       <c r="H50" s="13">
-        <v>32036250</v>
+        <v>31695201</v>
       </c>
       <c r="I50" s="13">
-        <v>31695201</v>
+        <v>25117986</v>
       </c>
       <c r="J50" s="13">
-        <v>25117986</v>
+        <v>30662666</v>
       </c>
       <c r="K50" s="13">
-        <v>30662666</v>
+        <v>32237784</v>
       </c>
       <c r="L50" s="13">
-        <v>32237784</v>
+        <v>32079397</v>
       </c>
       <c r="M50" s="13">
-        <v>32079397</v>
+        <v>30165977</v>
       </c>
       <c r="N50" s="13">
-        <v>30165977</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31299169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2163,7 +2163,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2178,7 +2178,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2193,7 +2193,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2245,161 +2245,161 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>223546</v>
+        <v>223427</v>
       </c>
       <c r="F57" s="11">
-        <v>223427</v>
+        <v>181492</v>
       </c>
       <c r="G57" s="11">
-        <v>181492</v>
+        <v>443096</v>
       </c>
       <c r="H57" s="11">
-        <v>443096</v>
+        <v>327007</v>
       </c>
       <c r="I57" s="11">
-        <v>327007</v>
+        <v>385830</v>
       </c>
       <c r="J57" s="11">
-        <v>385830</v>
+        <v>244189</v>
       </c>
       <c r="K57" s="11">
-        <v>244189</v>
+        <v>221829</v>
       </c>
       <c r="L57" s="11">
-        <v>221829</v>
+        <v>467327</v>
       </c>
       <c r="M57" s="11">
-        <v>467327</v>
+        <v>342453</v>
       </c>
       <c r="N57" s="11">
-        <v>342453</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>220992</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>3438479</v>
+        <v>2278996</v>
       </c>
       <c r="F58" s="9">
-        <v>2278996</v>
+        <v>5921812</v>
       </c>
       <c r="G58" s="9">
-        <v>5921812</v>
+        <v>3022160</v>
       </c>
       <c r="H58" s="9">
-        <v>3022160</v>
+        <v>3658601</v>
       </c>
       <c r="I58" s="9">
-        <v>3658601</v>
+        <v>3259299</v>
       </c>
       <c r="J58" s="9">
-        <v>3259299</v>
+        <v>3628446</v>
       </c>
       <c r="K58" s="9">
-        <v>3628446</v>
+        <v>3456233</v>
       </c>
       <c r="L58" s="9">
-        <v>3456233</v>
+        <v>3323668</v>
       </c>
       <c r="M58" s="9">
-        <v>3323668</v>
+        <v>4007936</v>
       </c>
       <c r="N58" s="9">
-        <v>4007936</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3536043</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>3662025</v>
+        <v>2502423</v>
       </c>
       <c r="F59" s="13">
-        <v>2502423</v>
+        <v>6103304</v>
       </c>
       <c r="G59" s="13">
-        <v>6103304</v>
+        <v>3465256</v>
       </c>
       <c r="H59" s="13">
-        <v>3465256</v>
+        <v>3985608</v>
       </c>
       <c r="I59" s="13">
-        <v>3985608</v>
+        <v>3645129</v>
       </c>
       <c r="J59" s="13">
-        <v>3645129</v>
+        <v>3872635</v>
       </c>
       <c r="K59" s="13">
-        <v>3872635</v>
+        <v>3678062</v>
       </c>
       <c r="L59" s="13">
-        <v>3678062</v>
+        <v>3790995</v>
       </c>
       <c r="M59" s="13">
-        <v>3790995</v>
+        <v>4350389</v>
       </c>
       <c r="N59" s="13">
-        <v>4350389</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3757035</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2414,7 +2414,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2429,7 +2429,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2444,7 +2444,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>37</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2496,46 +2496,46 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>32</v>
       </c>
@@ -2544,37 +2544,37 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>1058045</v>
+        <v>810373</v>
       </c>
       <c r="F66" s="11">
-        <v>810373</v>
+        <v>1166100</v>
       </c>
       <c r="G66" s="11">
-        <v>1166100</v>
+        <v>1308310</v>
       </c>
       <c r="H66" s="11">
-        <v>1308310</v>
-      </c>
-      <c r="I66" s="11">
         <v>5307306</v>
       </c>
-      <c r="J66" s="11" t="s">
-        <v>25</v>
+      <c r="I66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" s="11">
+        <v>5224885</v>
       </c>
       <c r="K66" s="11">
-        <v>5224885</v>
+        <v>3624293</v>
       </c>
       <c r="L66" s="11">
-        <v>3624293</v>
+        <v>5084196</v>
       </c>
       <c r="M66" s="11">
-        <v>5084196</v>
+        <v>10633091</v>
       </c>
       <c r="N66" s="11">
-        <v>10633091</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7044727</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
@@ -2583,74 +2583,74 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>17230354</v>
+        <v>19790856</v>
       </c>
       <c r="F67" s="9">
-        <v>19790856</v>
+        <v>16841135</v>
       </c>
       <c r="G67" s="9">
-        <v>16841135</v>
+        <v>58613839</v>
       </c>
       <c r="H67" s="9">
-        <v>58613839</v>
+        <v>36593921</v>
       </c>
       <c r="I67" s="9">
-        <v>36593921</v>
+        <v>48587146</v>
       </c>
       <c r="J67" s="9">
-        <v>48587146</v>
+        <v>47811805</v>
       </c>
       <c r="K67" s="9">
-        <v>47811805</v>
+        <v>68520592</v>
       </c>
       <c r="L67" s="9">
-        <v>68520592</v>
+        <v>85631678</v>
       </c>
       <c r="M67" s="9">
-        <v>85631678</v>
+        <v>76859840</v>
       </c>
       <c r="N67" s="9">
-        <v>76859840</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85514234</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>18288399</v>
+        <v>20601229</v>
       </c>
       <c r="F68" s="13">
-        <v>20601229</v>
+        <v>18007235</v>
       </c>
       <c r="G68" s="13">
-        <v>18007235</v>
+        <v>59922149</v>
       </c>
       <c r="H68" s="13">
-        <v>59922149</v>
+        <v>41901227</v>
       </c>
       <c r="I68" s="13">
-        <v>41901227</v>
+        <v>48587146</v>
       </c>
       <c r="J68" s="13">
-        <v>48587146</v>
+        <v>53036690</v>
       </c>
       <c r="K68" s="13">
-        <v>53036690</v>
+        <v>72144885</v>
       </c>
       <c r="L68" s="13">
-        <v>72144885</v>
+        <v>90715874</v>
       </c>
       <c r="M68" s="13">
-        <v>90715874</v>
+        <v>87492931</v>
       </c>
       <c r="N68" s="13">
-        <v>87492931</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>92558961</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2665,7 +2665,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2680,7 +2680,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2695,7 +2695,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>39</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2747,46 +2747,46 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>32</v>
       </c>
@@ -2795,37 +2795,37 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>3551359</v>
+        <v>11967046</v>
       </c>
       <c r="F75" s="11">
-        <v>11967046</v>
+        <v>24084331</v>
       </c>
       <c r="G75" s="11">
-        <v>24084331</v>
+        <v>33794687</v>
       </c>
       <c r="H75" s="11">
-        <v>33794687</v>
+        <v>30310831</v>
       </c>
       <c r="I75" s="11">
-        <v>30310831</v>
+        <v>25363023</v>
       </c>
       <c r="J75" s="11">
-        <v>25363023</v>
+        <v>34967149</v>
       </c>
       <c r="K75" s="11">
-        <v>34967149</v>
+        <v>45276724</v>
       </c>
       <c r="L75" s="11">
-        <v>45276724</v>
+        <v>52751651</v>
       </c>
       <c r="M75" s="11">
-        <v>52751651</v>
+        <v>52228022</v>
       </c>
       <c r="N75" s="11">
-        <v>52228022</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40172889</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>33</v>
       </c>
@@ -2834,74 +2834,74 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>174692250</v>
+        <v>167701074</v>
       </c>
       <c r="F76" s="9">
-        <v>167701074</v>
+        <v>329340861</v>
       </c>
       <c r="G76" s="9">
-        <v>329340861</v>
+        <v>331282989</v>
       </c>
       <c r="H76" s="9">
-        <v>331282989</v>
+        <v>423953600</v>
       </c>
       <c r="I76" s="9">
-        <v>423953600</v>
+        <v>376992675</v>
       </c>
       <c r="J76" s="9">
-        <v>376992675</v>
+        <v>543906042</v>
       </c>
       <c r="K76" s="9">
-        <v>543906042</v>
+        <v>737353128</v>
       </c>
       <c r="L76" s="9">
-        <v>737353128</v>
+        <v>690727427</v>
       </c>
       <c r="M76" s="9">
-        <v>690727427</v>
+        <v>591399612</v>
       </c>
       <c r="N76" s="9">
-        <v>591399612</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>529191171</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>178243609</v>
+        <v>179668120</v>
       </c>
       <c r="F77" s="13">
-        <v>179668120</v>
+        <v>353425192</v>
       </c>
       <c r="G77" s="13">
-        <v>353425192</v>
+        <v>365077676</v>
       </c>
       <c r="H77" s="13">
-        <v>365077676</v>
+        <v>454264431</v>
       </c>
       <c r="I77" s="13">
-        <v>454264431</v>
+        <v>402355698</v>
       </c>
       <c r="J77" s="13">
-        <v>402355698</v>
+        <v>578873191</v>
       </c>
       <c r="K77" s="13">
-        <v>578873191</v>
+        <v>782629852</v>
       </c>
       <c r="L77" s="13">
-        <v>782629852</v>
+        <v>743479078</v>
       </c>
       <c r="M77" s="13">
-        <v>743479078</v>
+        <v>643627634</v>
       </c>
       <c r="N77" s="13">
-        <v>643627634</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>569364060</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2916,7 +2916,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2931,7 +2931,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2946,7 +2946,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>40</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2998,46 +2998,46 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>32</v>
       </c>
@@ -3046,37 +3046,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>3799031</v>
+        <v>11611319</v>
       </c>
       <c r="F84" s="11">
-        <v>11611319</v>
+        <v>23942122</v>
       </c>
       <c r="G84" s="11">
-        <v>23942122</v>
+        <v>29795691</v>
       </c>
       <c r="H84" s="11">
-        <v>29795691</v>
+        <v>31476777</v>
       </c>
       <c r="I84" s="11">
-        <v>31476777</v>
+        <v>24279498</v>
       </c>
       <c r="J84" s="11">
-        <v>24279498</v>
+        <v>36567741</v>
       </c>
       <c r="K84" s="11">
-        <v>36567741</v>
+        <v>43816821</v>
       </c>
       <c r="L84" s="11">
-        <v>43816821</v>
+        <v>47202756</v>
       </c>
       <c r="M84" s="11">
-        <v>47202756</v>
+        <v>55816386</v>
       </c>
       <c r="N84" s="11">
-        <v>55816386</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42454305</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>33</v>
       </c>
@@ -3085,74 +3085,74 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>172131748</v>
+        <v>170650795</v>
       </c>
       <c r="F85" s="9">
-        <v>170650795</v>
+        <v>287568156</v>
       </c>
       <c r="G85" s="9">
-        <v>287568156</v>
+        <v>353302907</v>
       </c>
       <c r="H85" s="9">
-        <v>353302907</v>
+        <v>412106092</v>
       </c>
       <c r="I85" s="9">
-        <v>412106092</v>
+        <v>377622299</v>
       </c>
       <c r="J85" s="9">
-        <v>377622299</v>
+        <v>523197255</v>
       </c>
       <c r="K85" s="9">
-        <v>523197255</v>
+        <v>720242042</v>
       </c>
       <c r="L85" s="9">
-        <v>720242042</v>
+        <v>699499265</v>
       </c>
       <c r="M85" s="9">
-        <v>699499265</v>
+        <v>582745218</v>
       </c>
       <c r="N85" s="9">
-        <v>582745218</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>540575856</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>175930779</v>
+        <v>182262114</v>
       </c>
       <c r="F86" s="13">
-        <v>182262114</v>
+        <v>311510278</v>
       </c>
       <c r="G86" s="13">
-        <v>311510278</v>
+        <v>383098598</v>
       </c>
       <c r="H86" s="13">
-        <v>383098598</v>
+        <v>443582869</v>
       </c>
       <c r="I86" s="13">
-        <v>443582869</v>
+        <v>401901797</v>
       </c>
       <c r="J86" s="13">
-        <v>401901797</v>
+        <v>559764996</v>
       </c>
       <c r="K86" s="13">
-        <v>559764996</v>
+        <v>764058863</v>
       </c>
       <c r="L86" s="13">
-        <v>764058863</v>
+        <v>746702021</v>
       </c>
       <c r="M86" s="13">
-        <v>746702021</v>
+        <v>638561604</v>
       </c>
       <c r="N86" s="13">
-        <v>638561604</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>583030161</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3167,7 +3167,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3182,7 +3182,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3197,7 +3197,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>41</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3249,46 +3249,46 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N92" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>32</v>
       </c>
@@ -3297,37 +3297,37 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>810373</v>
+        <v>1166100</v>
       </c>
       <c r="F93" s="11">
-        <v>1166100</v>
+        <v>1308309</v>
       </c>
       <c r="G93" s="11">
-        <v>1308309</v>
+        <v>5307306</v>
       </c>
       <c r="H93" s="11">
-        <v>5307306</v>
+        <v>4141360</v>
       </c>
       <c r="I93" s="11">
-        <v>4141360</v>
+        <v>5224885</v>
       </c>
       <c r="J93" s="11">
-        <v>5224885</v>
+        <v>3624293</v>
       </c>
       <c r="K93" s="11">
-        <v>3624293</v>
+        <v>5084196</v>
       </c>
       <c r="L93" s="11">
-        <v>5084196</v>
+        <v>10633091</v>
       </c>
       <c r="M93" s="11">
-        <v>10633091</v>
+        <v>7044727</v>
       </c>
       <c r="N93" s="11">
-        <v>7044727</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4763311</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>33</v>
       </c>
@@ -3336,74 +3336,74 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
-        <v>19790856</v>
+        <v>16841135</v>
       </c>
       <c r="F94" s="9">
-        <v>16841135</v>
+        <v>58613840</v>
       </c>
       <c r="G94" s="9">
-        <v>58613840</v>
+        <v>36593921</v>
       </c>
       <c r="H94" s="9">
-        <v>36593921</v>
+        <v>48441429</v>
       </c>
       <c r="I94" s="9">
-        <v>48441429</v>
+        <v>47811805</v>
       </c>
       <c r="J94" s="9">
-        <v>47811805</v>
+        <v>68520592</v>
       </c>
       <c r="K94" s="9">
-        <v>68520592</v>
+        <v>85631678</v>
       </c>
       <c r="L94" s="9">
-        <v>85631678</v>
+        <v>76859840</v>
       </c>
       <c r="M94" s="9">
-        <v>76859840</v>
+        <v>85514234</v>
       </c>
       <c r="N94" s="9">
-        <v>85514234</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74129549</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>20601229</v>
+        <v>18007235</v>
       </c>
       <c r="F95" s="13">
-        <v>18007235</v>
+        <v>59922149</v>
       </c>
       <c r="G95" s="13">
-        <v>59922149</v>
+        <v>41901227</v>
       </c>
       <c r="H95" s="13">
-        <v>41901227</v>
+        <v>52582789</v>
       </c>
       <c r="I95" s="13">
-        <v>52582789</v>
+        <v>53036690</v>
       </c>
       <c r="J95" s="13">
-        <v>53036690</v>
+        <v>72144885</v>
       </c>
       <c r="K95" s="13">
-        <v>72144885</v>
+        <v>90715874</v>
       </c>
       <c r="L95" s="13">
-        <v>90715874</v>
+        <v>87492931</v>
       </c>
       <c r="M95" s="13">
-        <v>87492931</v>
+        <v>92558961</v>
       </c>
       <c r="N95" s="13">
-        <v>92558961</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>78892860</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3418,7 +3418,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3433,7 +3433,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3448,7 +3448,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>42</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3500,7 +3500,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>32</v>
       </c>
@@ -3509,37 +3509,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>2778786</v>
+        <v>3625084</v>
       </c>
       <c r="F101" s="9">
-        <v>3625084</v>
+        <v>5219154</v>
       </c>
       <c r="G101" s="9">
-        <v>5219154</v>
+        <v>7208637</v>
       </c>
       <c r="H101" s="9">
-        <v>7208637</v>
+        <v>11977779</v>
       </c>
       <c r="I101" s="9">
-        <v>11977779</v>
+        <v>12664438</v>
       </c>
       <c r="J101" s="9">
-        <v>12664438</v>
+        <v>13541936</v>
       </c>
       <c r="K101" s="9">
-        <v>13541936</v>
+        <v>14842163</v>
       </c>
       <c r="L101" s="9">
-        <v>14842163</v>
+        <v>22919438</v>
       </c>
       <c r="M101" s="9">
-        <v>22919438</v>
+        <v>22753000</v>
       </c>
       <c r="N101" s="9">
-        <v>22753000</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20571369</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>33</v>
       </c>
@@ -3548,37 +3548,37 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>3986021</v>
+        <v>5755701</v>
       </c>
       <c r="F102" s="11">
-        <v>5755701</v>
+        <v>7389717</v>
       </c>
       <c r="G102" s="11">
-        <v>7389717</v>
+        <v>9897957</v>
       </c>
       <c r="H102" s="11">
-        <v>9897957</v>
+        <v>12108532</v>
       </c>
       <c r="I102" s="11">
-        <v>12108532</v>
+        <v>13240424</v>
       </c>
       <c r="J102" s="11">
-        <v>13240424</v>
+        <v>14669352</v>
       </c>
       <c r="K102" s="11">
-        <v>14669352</v>
+        <v>18884280</v>
       </c>
       <c r="L102" s="11">
-        <v>18884280</v>
+        <v>24776014</v>
       </c>
       <c r="M102" s="11">
-        <v>24776014</v>
+        <v>23125005</v>
       </c>
       <c r="N102" s="11">
-        <v>23125005</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21336227</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3593,7 +3593,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3608,7 +3608,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3623,7 +3623,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>44</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3675,7 +3675,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>32</v>
       </c>
@@ -3684,37 +3684,37 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
-        <v>5778175</v>
+        <v>7352527</v>
       </c>
       <c r="F108" s="9">
-        <v>7352527</v>
+        <v>10514104</v>
       </c>
       <c r="G108" s="9">
-        <v>10514104</v>
+        <v>11965597</v>
       </c>
       <c r="H108" s="9">
-        <v>11965597</v>
+        <v>14037049</v>
       </c>
       <c r="I108" s="9">
-        <v>14037049</v>
+        <v>16488446</v>
       </c>
       <c r="J108" s="9">
-        <v>16488446</v>
+        <v>19770061</v>
       </c>
       <c r="K108" s="9">
-        <v>19770061</v>
+        <v>23963356</v>
       </c>
       <c r="L108" s="9">
-        <v>23963356</v>
+        <v>22600851</v>
       </c>
       <c r="M108" s="9">
-        <v>22600851</v>
+        <v>20702854</v>
       </c>
       <c r="N108" s="9">
-        <v>20702854</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19960325</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>33</v>
       </c>
@@ -3723,37 +3723,37 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>6644329</v>
+        <v>8464298</v>
       </c>
       <c r="F109" s="11">
-        <v>8464298</v>
+        <v>10925873</v>
       </c>
       <c r="G109" s="11">
-        <v>10925873</v>
+        <v>12466489</v>
       </c>
       <c r="H109" s="11">
-        <v>12466489</v>
+        <v>14105359</v>
       </c>
       <c r="I109" s="11">
-        <v>14105359</v>
+        <v>16222220</v>
       </c>
       <c r="J109" s="11">
-        <v>16222220</v>
+        <v>18677143</v>
       </c>
       <c r="K109" s="11">
-        <v>18677143</v>
+        <v>24453078</v>
       </c>
       <c r="L109" s="11">
-        <v>24453078</v>
+        <v>23133535</v>
       </c>
       <c r="M109" s="11">
-        <v>23133535</v>
+        <v>20969665</v>
       </c>
       <c r="N109" s="11">
-        <v>20969665</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18443101</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3768,7 +3768,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3783,7 +3783,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3798,7 +3798,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>45</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3850,7 +3850,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>32</v>
       </c>
@@ -3859,37 +3859,37 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>4922109</v>
+        <v>7133447</v>
       </c>
       <c r="F115" s="9">
-        <v>7133447</v>
+        <v>10264118</v>
       </c>
       <c r="G115" s="9">
-        <v>10264118</v>
+        <v>11626602</v>
       </c>
       <c r="H115" s="9">
-        <v>11626602</v>
+        <v>13833307</v>
       </c>
       <c r="I115" s="9">
-        <v>13833307</v>
+        <v>16411642</v>
       </c>
       <c r="J115" s="9">
-        <v>16411642</v>
+        <v>19142077</v>
       </c>
       <c r="K115" s="9">
-        <v>19142077</v>
+        <v>22919445</v>
       </c>
       <c r="L115" s="9">
-        <v>22919445</v>
+        <v>22600644</v>
       </c>
       <c r="M115" s="9">
-        <v>22600644</v>
+        <v>21081729</v>
       </c>
       <c r="N115" s="9">
-        <v>21081729</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19893325</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>33</v>
       </c>
@@ -3898,37 +3898,37 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>6333927</v>
+        <v>8136985</v>
       </c>
       <c r="F116" s="11">
-        <v>8136985</v>
+        <v>10851468</v>
       </c>
       <c r="G116" s="11">
-        <v>10851468</v>
+        <v>11987124</v>
       </c>
       <c r="H116" s="11">
-        <v>11987124</v>
+        <v>14007796</v>
       </c>
       <c r="I116" s="11">
-        <v>14007796</v>
+        <v>15974831</v>
       </c>
       <c r="J116" s="11">
-        <v>15974831</v>
+        <v>18196689</v>
       </c>
       <c r="K116" s="11">
-        <v>18196689</v>
+        <v>23749978</v>
       </c>
       <c r="L116" s="11">
-        <v>23749978</v>
+        <v>23323764</v>
       </c>
       <c r="M116" s="11">
-        <v>23323764</v>
+        <v>21176598</v>
       </c>
       <c r="N116" s="11">
-        <v>21176598</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18535043</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3943,7 +3943,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3958,7 +3958,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3973,7 +3973,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>46</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4025,85 +4025,85 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G122" s="9">
+        <v>11977779</v>
       </c>
       <c r="H122" s="9">
-        <v>11977779</v>
+        <v>12664438</v>
       </c>
       <c r="I122" s="9">
-        <v>12664438</v>
+        <v>13541936</v>
       </c>
       <c r="J122" s="9">
-        <v>13541936</v>
+        <v>14842163</v>
       </c>
       <c r="K122" s="9">
-        <v>14842163</v>
+        <v>22919438</v>
       </c>
       <c r="L122" s="9">
-        <v>22919438</v>
+        <v>22753000</v>
       </c>
       <c r="M122" s="9">
-        <v>22753000</v>
+        <v>20571369</v>
       </c>
       <c r="N122" s="9">
-        <v>20571369</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21554224</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G123" s="11">
+        <v>12108532</v>
       </c>
       <c r="H123" s="11">
-        <v>12108532</v>
+        <v>13240424</v>
       </c>
       <c r="I123" s="11">
-        <v>13240424</v>
+        <v>14669352</v>
       </c>
       <c r="J123" s="11">
-        <v>14669352</v>
+        <v>18884280</v>
       </c>
       <c r="K123" s="11">
-        <v>18884280</v>
+        <v>24776014</v>
       </c>
       <c r="L123" s="11">
-        <v>24776014</v>
+        <v>23125005</v>
       </c>
       <c r="M123" s="11">
-        <v>23125005</v>
+        <v>21336227</v>
       </c>
       <c r="N123" s="11">
-        <v>21336227</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20963984</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4118,7 +4118,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4133,7 +4133,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4148,7 +4148,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>47</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4200,7 +4200,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>48</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>49</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>50</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>51</v>
       </c>
@@ -4348,44 +4348,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>179129</v>
+        <v>165057</v>
       </c>
       <c r="F133" s="9">
-        <v>165057</v>
+        <v>321506</v>
       </c>
       <c r="G133" s="9">
-        <v>321506</v>
+        <v>208884</v>
       </c>
       <c r="H133" s="9">
-        <v>208884</v>
+        <v>437678</v>
       </c>
       <c r="I133" s="9">
-        <v>437678</v>
+        <v>227537</v>
       </c>
       <c r="J133" s="9">
-        <v>227537</v>
+        <v>418224</v>
       </c>
       <c r="K133" s="9">
-        <v>418224</v>
+        <v>368867</v>
       </c>
       <c r="L133" s="9">
-        <v>368867</v>
+        <v>620882</v>
       </c>
       <c r="M133" s="9">
-        <v>620882</v>
+        <v>343825</v>
       </c>
       <c r="N133" s="9">
-        <v>343825</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>632468</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>53</v>
       </c>
@@ -4422,81 +4422,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>168195</v>
+        <v>723276</v>
       </c>
       <c r="F135" s="9">
-        <v>723276</v>
+        <v>748022</v>
       </c>
       <c r="G135" s="9">
-        <v>748022</v>
+        <v>465447</v>
       </c>
       <c r="H135" s="9">
-        <v>465447</v>
+        <v>1423033</v>
       </c>
       <c r="I135" s="9">
-        <v>1423033</v>
+        <v>839002</v>
       </c>
       <c r="J135" s="9">
-        <v>839002</v>
+        <v>1225300</v>
       </c>
       <c r="K135" s="9">
-        <v>1225300</v>
+        <v>879074</v>
       </c>
       <c r="L135" s="9">
-        <v>879074</v>
+        <v>952532</v>
       </c>
       <c r="M135" s="9">
-        <v>952532</v>
+        <v>1173291</v>
       </c>
       <c r="N135" s="9">
-        <v>1173291</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>983092</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>326661</v>
+        <v>1346814</v>
       </c>
       <c r="F136" s="11">
-        <v>1346814</v>
+        <v>1111844</v>
       </c>
       <c r="G136" s="11">
-        <v>1111844</v>
+        <v>1710501</v>
       </c>
       <c r="H136" s="11">
-        <v>1710501</v>
+        <v>2197969</v>
       </c>
       <c r="I136" s="11">
-        <v>2197969</v>
+        <v>1855283</v>
       </c>
       <c r="J136" s="11">
-        <v>1855283</v>
+        <v>4186035</v>
       </c>
       <c r="K136" s="11">
-        <v>4186035</v>
+        <v>2883381</v>
       </c>
       <c r="L136" s="11">
-        <v>2883381</v>
+        <v>2788406</v>
       </c>
       <c r="M136" s="11">
-        <v>2788406</v>
+        <v>3075687</v>
       </c>
       <c r="N136" s="11">
-        <v>3075687</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3186153</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>56</v>
       </c>
@@ -4533,81 +4533,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>1412082</v>
+        <v>1034772</v>
       </c>
       <c r="F138" s="11">
-        <v>1034772</v>
+        <v>1451047</v>
       </c>
       <c r="G138" s="11">
-        <v>1451047</v>
+        <v>2669509</v>
       </c>
       <c r="H138" s="11">
-        <v>2669509</v>
+        <v>916168</v>
       </c>
       <c r="I138" s="11">
-        <v>916168</v>
+        <v>4951649</v>
       </c>
       <c r="J138" s="11">
-        <v>4951649</v>
+        <v>11447802</v>
       </c>
       <c r="K138" s="11">
-        <v>11447802</v>
+        <v>5164205</v>
       </c>
       <c r="L138" s="11">
-        <v>5164205</v>
+        <v>5559652</v>
       </c>
       <c r="M138" s="11">
-        <v>5559652</v>
+        <v>6046360</v>
       </c>
       <c r="N138" s="11">
-        <v>6046360</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8101991</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15">
-        <v>2086067</v>
+        <v>3269919</v>
       </c>
       <c r="F139" s="15">
-        <v>3269919</v>
+        <v>3632419</v>
       </c>
       <c r="G139" s="15">
-        <v>3632419</v>
+        <v>5054341</v>
       </c>
       <c r="H139" s="15">
-        <v>5054341</v>
+        <v>4974848</v>
       </c>
       <c r="I139" s="15">
-        <v>4974848</v>
+        <v>7873471</v>
       </c>
       <c r="J139" s="15">
-        <v>7873471</v>
+        <v>17277361</v>
       </c>
       <c r="K139" s="15">
-        <v>17277361</v>
+        <v>9295527</v>
       </c>
       <c r="L139" s="15">
-        <v>9295527</v>
+        <v>9921472</v>
       </c>
       <c r="M139" s="15">
-        <v>9921472</v>
+        <v>10639163</v>
       </c>
       <c r="N139" s="15">
-        <v>10639163</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12903704</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4622,7 +4622,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4637,7 +4637,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4652,7 +4652,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>58</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4684,7 +4684,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>59</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>61</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>63</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>65</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>67</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>69</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>71</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>72</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>73</v>
       </c>
@@ -4783,7 +4783,7 @@
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>74</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>73</v>
       </c>
